--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -100,10 +100,10 @@
     <t>safe</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>well</t>
@@ -655,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1197,25 +1197,25 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6566523605150214</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L17">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1223,25 +1223,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6491228070175439</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1405,25 +1405,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.524390243902439</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L25">
         <v>172</v>
       </c>
       <c r="M25">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N25">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="10:17">
